--- a/BackTest/2020-01-22 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-22 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5205.083530889986</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5203.083530889986</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>309.1</v>
@@ -521,7 +521,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>316.1</v>
@@ -562,7 +562,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>315.9</v>
@@ -603,7 +603,7 @@
         <v>-12423.12003088999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>315.9</v>
@@ -644,7 +644,7 @@
         <v>-12521.14943088999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>315.8</v>
@@ -685,7 +685,7 @@
         <v>-12784.65153088999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>315.5</v>
@@ -726,7 +726,7 @@
         <v>-18375.59033088999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>315.4</v>
@@ -767,9 +767,11 @@
         <v>-15775.59033088999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>312.1</v>
+      </c>
       <c r="J10" t="n">
         <v>309.1</v>
       </c>
@@ -806,9 +808,11 @@
         <v>-15773.59033088999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>315.3</v>
+      </c>
       <c r="J11" t="n">
         <v>309.1</v>
       </c>
@@ -845,9 +849,11 @@
         <v>-20577.91663088999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>315.4</v>
+      </c>
       <c r="J12" t="n">
         <v>309.1</v>
       </c>
@@ -884,9 +890,11 @@
         <v>-20127.91663088999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>314.2</v>
+      </c>
       <c r="J13" t="n">
         <v>309.1</v>
       </c>
@@ -923,7 +931,7 @@
         <v>-20318.23463088999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>315.4</v>
@@ -1003,9 +1011,11 @@
         <v>-16302.12453088999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>315.4</v>
+      </c>
       <c r="J16" t="n">
         <v>309.1</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>-13360.62683088999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>317.6</v>
@@ -1083,7 +1093,7 @@
         <v>-13364.62683088999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>320.2</v>
@@ -1124,9 +1134,11 @@
         <v>-16243.29913088999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>319.8</v>
+      </c>
       <c r="J19" t="n">
         <v>309.1</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>-23806.80773088999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>319.5</v>
@@ -1204,9 +1216,11 @@
         <v>-21821.71913088999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>319</v>
+      </c>
       <c r="J21" t="n">
         <v>309.1</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>-9221.025030889989</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>320.1</v>
@@ -1284,7 +1298,7 @@
         <v>-9190.025030889989</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>321.7</v>
@@ -1325,7 +1339,7 @@
         <v>-6325.672630889989</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>321.9</v>
@@ -1366,11 +1380,9 @@
         <v>-10738.63853088999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>324.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>309.1</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>-7887.566730889988</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>323</v>
@@ -1448,9 +1460,11 @@
         <v>-4919.089430889988</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>325.9</v>
+      </c>
       <c r="J27" t="n">
         <v>309.1</v>
       </c>
@@ -1799,11 +1813,9 @@
         <v>17770.19726911001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>332.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>309.1</v>
       </c>
@@ -1840,11 +1852,9 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>309.1</v>
       </c>
@@ -1881,11 +1891,9 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>332.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>309.1</v>
       </c>
@@ -1922,11 +1930,9 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>332.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>309.1</v>
       </c>
@@ -1963,11 +1969,9 @@
         <v>13893.61786911001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>332.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>309.1</v>
       </c>
@@ -2004,11 +2008,9 @@
         <v>41447.17516911001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>329.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>309.1</v>
       </c>
@@ -2045,11 +2047,9 @@
         <v>37517.65776911001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>309.1</v>
       </c>
@@ -2086,11 +2086,9 @@
         <v>37521.15776911001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>309.1</v>
       </c>
@@ -2127,11 +2125,9 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>337.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>309.1</v>
       </c>
@@ -2168,11 +2164,9 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>309.1</v>
       </c>
@@ -2209,11 +2203,9 @@
         <v>35781.22366911001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>309.1</v>
       </c>
@@ -2250,11 +2242,9 @@
         <v>35785.22366911001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>332.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>309.1</v>
       </c>
@@ -2291,11 +2281,9 @@
         <v>37447.66546911001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>332.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>309.1</v>
       </c>
@@ -2332,11 +2320,9 @@
         <v>37647.69546911001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>309.1</v>
       </c>
@@ -2373,11 +2359,9 @@
         <v>40990.28816911001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>338.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>309.1</v>
       </c>
@@ -2453,11 +2437,9 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>339.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>309.1</v>
       </c>
@@ -2494,11 +2476,9 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>339.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>309.1</v>
       </c>
@@ -2535,7 +2515,7 @@
         <v>47556.52920553002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>339.4</v>
@@ -2576,11 +2556,9 @@
         <v>61455.90410553002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>309.1</v>
       </c>
@@ -2617,9 +2595,11 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>348.9</v>
+      </c>
       <c r="J56" t="n">
         <v>309.1</v>
       </c>
@@ -2773,9 +2753,11 @@
         <v>52919.55020553002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>349.1</v>
+      </c>
       <c r="J60" t="n">
         <v>309.1</v>
       </c>
@@ -3982,7 +3964,7 @@
         <v>93037.87205444001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -4060,7 +4042,7 @@
         <v>96425.08805444001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
@@ -4372,7 +4354,7 @@
         <v>77158.48397109001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
@@ -4489,7 +4471,7 @@
         <v>78066.09277109003</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
@@ -4528,7 +4510,7 @@
         <v>74761.51327109002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
@@ -4606,7 +4588,7 @@
         <v>77682.07712114001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -4645,7 +4627,7 @@
         <v>77682.07712114001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
@@ -4684,7 +4666,7 @@
         <v>74388.89162114001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
@@ -4762,7 +4744,7 @@
         <v>74391.95872114001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
@@ -4801,7 +4783,7 @@
         <v>74193.95872114001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -4840,7 +4822,7 @@
         <v>74195.94352114001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
@@ -8038,7 +8020,7 @@
         <v>135202.67439082</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
@@ -8046,15 +8028,13 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.106614364283403</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.022646392753154</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8079,11 +8059,17 @@
         <v>135842.93499082</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +8098,17 @@
         <v>135286.55509082</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +8137,17 @@
         <v>134703.13049082</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +8176,17 @@
         <v>129553.48179082</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8211,11 +8215,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +8254,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +8293,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8313,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8343,11 +8371,17 @@
         <v>129352.3856371</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8379,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8412,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8445,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8478,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8511,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8544,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8577,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8610,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8643,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8676,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8709,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8742,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +8881,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8808,8 +8920,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +8959,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +8998,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8907,8 +9037,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8940,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8973,8 +9115,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9006,8 +9154,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9039,8 +9193,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9232,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9105,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9138,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9171,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9204,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9237,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9303,8 +9505,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9336,8 +9544,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9369,8 +9583,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9402,8 +9622,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9435,8 +9661,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9468,8 +9700,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9501,8 +9739,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9534,8 +9778,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9567,8 +9817,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9600,8 +9856,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9633,8 +9895,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9666,8 +9934,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9699,8 +9973,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9732,8 +10012,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +10051,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9798,8 +10090,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9831,8 +10129,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9864,8 +10168,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9897,8 +10207,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9930,8 +10246,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9963,8 +10285,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9996,8 +10324,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10029,8 +10363,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10062,8 +10402,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10095,8 +10441,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10128,8 +10480,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10161,8 +10519,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10194,8 +10558,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10227,8 +10597,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10260,8 +10636,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10293,8 +10675,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10326,8 +10714,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10359,8 +10753,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10392,8 +10792,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10425,8 +10831,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10458,8 +10870,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10488,15 +10906,17 @@
         <v>43351.54079523005</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>323.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>323.4</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+        <v>309.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10525,17 +10945,15 @@
         <v>28196.61239523005</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>322.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -10566,17 +10984,15 @@
         <v>45664.28549523005</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>322.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -10607,13 +11023,11 @@
         <v>43495.45239523005</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>324.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10648,13 +11062,11 @@
         <v>43495.45239523005</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10689,13 +11101,11 @@
         <v>43412.17509523005</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10730,13 +11140,11 @@
         <v>52371.50009523005</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>321.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10775,7 +11183,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10814,7 +11222,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10849,13 +11257,11 @@
         <v>57135.07419523005</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>322.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10894,7 +11300,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10933,7 +11339,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10972,7 +11378,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11011,7 +11417,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11050,7 +11456,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11089,7 +11495,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11124,13 +11530,11 @@
         <v>43425.73699523004</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11165,13 +11569,11 @@
         <v>48431.50699523004</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11206,13 +11608,11 @@
         <v>52400.21539523004</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11247,13 +11647,11 @@
         <v>52400.21539523004</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>319.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11288,13 +11686,11 @@
         <v>39921.45659523005</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>319.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11329,13 +11725,11 @@
         <v>40235.93889523005</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>316.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11370,13 +11764,13 @@
         <v>41148.07373294005</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>316.8</v>
       </c>
       <c r="J291" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11411,13 +11805,11 @@
         <v>58870.11823294005</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11452,13 +11844,11 @@
         <v>65012.86883294005</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>317.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11493,13 +11883,11 @@
         <v>85836.11863294005</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11534,13 +11922,11 @@
         <v>85840.67703294005</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11575,13 +11961,11 @@
         <v>85840.67703294005</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>323.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11616,13 +12000,11 @@
         <v>98608.98297306005</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>323.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11657,13 +12039,11 @@
         <v>86944.48308141004</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>325.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11698,13 +12078,11 @@
         <v>87314.22908141004</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11743,7 +12121,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11778,13 +12156,11 @@
         <v>81264.77596266005</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11823,7 +12199,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11862,7 +12238,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11901,7 +12277,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11940,7 +12316,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11979,7 +12355,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12018,7 +12394,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12057,7 +12433,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12096,7 +12472,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12135,7 +12511,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12174,7 +12550,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12213,7 +12589,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12252,7 +12628,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12291,7 +12667,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12330,7 +12706,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12369,7 +12745,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12408,7 +12784,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12447,7 +12823,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12482,13 +12858,11 @@
         <v>94410.54343892005</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>325.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12527,7 +12901,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12566,7 +12940,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12605,7 +12979,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12644,7 +13018,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12683,7 +13057,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12722,7 +13096,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12761,7 +13135,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12800,7 +13174,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12839,7 +13213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12878,7 +13252,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12917,7 +13291,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12952,13 +13326,11 @@
         <v>79261.58333892006</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>323.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12997,7 +13369,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13036,7 +13408,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13071,13 +13443,11 @@
         <v>78773.47123892006</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>322.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13112,13 +13482,11 @@
         <v>78940.05803892006</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>323.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13153,13 +13521,11 @@
         <v>78940.05803892006</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>327.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13194,13 +13560,11 @@
         <v>80524.92793892007</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>327.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13235,13 +13599,11 @@
         <v>80524.92793892007</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>327.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13276,13 +13638,11 @@
         <v>80917.94443892007</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>327.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13317,13 +13677,11 @@
         <v>81663.29333892006</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>327.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13358,13 +13716,11 @@
         <v>81924.60090918007</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>329.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13403,7 +13759,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13438,13 +13794,11 @@
         <v>81316.46327092007</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>329.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13479,13 +13833,11 @@
         <v>81314.66097092007</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>329.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13520,13 +13872,11 @@
         <v>81206.51137092007</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>328.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13561,13 +13911,11 @@
         <v>81208.89967092007</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>325.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13602,13 +13950,11 @@
         <v>78435.86077092007</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13643,13 +13989,11 @@
         <v>79014.12357092007</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13688,7 +14032,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13723,13 +14067,11 @@
         <v>74508.97077092007</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13764,13 +14106,11 @@
         <v>69154.35797092007</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>322.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13805,13 +14145,11 @@
         <v>69154.35797092007</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>320.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13850,7 +14188,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13885,13 +14223,11 @@
         <v>71099.52397092007</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13930,7 +14266,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13969,7 +14305,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14008,7 +14344,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14047,7 +14383,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14086,7 +14422,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14125,7 +14461,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14164,7 +14500,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14203,7 +14539,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14242,7 +14578,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14281,7 +14617,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14320,7 +14656,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14359,7 +14695,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14398,7 +14734,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14437,7 +14773,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14476,7 +14812,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14515,7 +14851,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14554,7 +14890,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14593,7 +14929,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14632,7 +14968,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14671,7 +15007,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14710,7 +15046,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14749,7 +15085,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14788,7 +15124,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14827,7 +15163,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14862,23 +15198,21 @@
         <v>105619.8048366501</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>323.4</v>
+        <v>309.1</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
-        <v>1.057770562770563</v>
-      </c>
-      <c r="M379" t="n">
-        <v>1.158201229375607</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14906,8 +15240,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14939,8 +15279,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14972,8 +15318,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15005,8 +15357,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15038,8 +15396,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15071,8 +15435,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15104,8 +15474,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15137,8 +15513,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15170,8 +15552,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15203,8 +15591,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15236,8 +15630,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15269,8 +15669,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15302,8 +15708,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15335,8 +15747,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15368,8 +15786,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15401,8 +15825,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15434,8 +15864,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15467,8 +15903,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15500,8 +15942,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15533,8 +15981,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15566,8 +16020,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15599,8 +16059,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15632,8 +16098,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15665,8 +16137,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15698,8 +16176,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15731,8 +16215,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15764,8 +16254,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15797,8 +16293,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15830,8 +16332,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15863,8 +16371,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15896,8 +16410,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15929,8 +16449,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15962,8 +16488,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15995,8 +16527,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16028,8 +16566,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16061,8 +16605,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16094,8 +16644,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16127,8 +16683,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16160,8 +16722,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16193,8 +16761,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16226,8 +16800,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16259,8 +16839,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16292,8 +16878,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16325,8 +16917,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16358,8 +16956,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16391,8 +16995,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16424,8 +17034,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16457,8 +17073,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16490,8 +17112,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16523,8 +17151,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16556,8 +17190,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16589,8 +17229,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16622,8 +17268,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16655,8 +17307,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16688,8 +17346,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16721,8 +17385,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16754,8 +17424,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16787,8 +17463,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16820,8 +17502,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16853,8 +17541,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16886,8 +17580,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16919,8 +17619,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16952,8 +17658,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16985,8 +17697,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17018,8 +17736,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17051,8 +17775,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17081,15 +17811,17 @@
         <v>65278.20103665014</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>327.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>327.5</v>
-      </c>
-      <c r="K446" t="inlineStr"/>
+        <v>309.1</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17118,17 +17850,15 @@
         <v>65309.20103665014</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L447" t="n">
@@ -17159,17 +17889,15 @@
         <v>65298.10703665014</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -17200,17 +17928,15 @@
         <v>63496.23093665014</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>325.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -17241,13 +17967,11 @@
         <v>63496.23093665014</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>325.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17282,13 +18006,11 @@
         <v>63496.23093665014</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>325.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17323,13 +18045,11 @@
         <v>63500.23093665014</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>325.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17364,13 +18084,11 @@
         <v>63468.37963665014</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>327.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17405,13 +18123,11 @@
         <v>39614.57803665014</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>321.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17450,7 +18166,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17485,13 +18201,11 @@
         <v>42546.79033665014</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>318.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17530,7 +18244,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17569,7 +18283,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17608,7 +18322,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17647,7 +18361,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17686,7 +18400,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17725,7 +18439,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17764,7 +18478,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17803,7 +18517,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17842,7 +18556,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17881,7 +18595,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17920,7 +18634,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17959,7 +18673,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17998,7 +18712,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18037,7 +18751,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18076,7 +18790,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18115,7 +18829,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18154,7 +18868,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18193,7 +18907,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18232,7 +18946,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18271,7 +18985,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18310,7 +19024,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18349,7 +19063,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18388,7 +19102,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18427,7 +19141,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18466,7 +19180,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18505,7 +19219,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18544,7 +19258,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18583,7 +19297,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18622,7 +19336,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18661,7 +19375,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18700,7 +19414,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18739,7 +19453,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18778,7 +19492,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18817,7 +19531,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18856,7 +19570,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18895,7 +19609,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18934,7 +19648,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18973,7 +19687,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19012,7 +19726,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19051,7 +19765,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19090,7 +19804,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19129,7 +19843,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19168,7 +19882,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19207,7 +19921,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19246,7 +19960,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19285,7 +19999,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19324,7 +20038,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19363,7 +20077,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19402,7 +20116,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19441,7 +20155,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19480,7 +20194,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19519,7 +20233,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19558,7 +20272,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19597,7 +20311,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19636,7 +20350,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19675,7 +20389,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19714,7 +20428,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19753,7 +20467,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19792,7 +20506,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19831,7 +20545,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19870,7 +20584,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19909,7 +20623,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19948,7 +20662,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19987,7 +20701,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20026,7 +20740,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20065,7 +20779,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20104,7 +20818,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20143,7 +20857,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20182,7 +20896,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20221,7 +20935,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20260,7 +20974,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20299,7 +21013,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20338,7 +21052,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20377,7 +21091,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20416,7 +21130,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20455,7 +21169,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20494,7 +21208,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20529,23 +21243,21 @@
         <v>135133.2391993502</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L534" t="n">
-        <v>1.063396946564886</v>
-      </c>
-      <c r="M534" t="n">
-        <v>1.158201229375607</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -20573,8 +21285,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20606,8 +21324,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20639,8 +21363,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20669,11 +21399,17 @@
         <v>103026.3525544602</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20705,8 +21441,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20738,8 +21480,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20771,8 +21519,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20804,8 +21558,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20837,8 +21597,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20870,8 +21636,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20903,8 +21675,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20936,8 +21714,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20969,8 +21753,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21002,8 +21792,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21035,8 +21831,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21068,8 +21870,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21101,8 +21909,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21134,8 +21948,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21164,11 +21984,17 @@
         <v>151846.4070618002</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21197,11 +22023,17 @@
         <v>157182.4568164202</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21230,11 +22062,17 @@
         <v>147405.5847164202</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21263,11 +22101,17 @@
         <v>140101.5857164201</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21296,11 +22140,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21329,11 +22179,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21365,8 +22221,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21398,8 +22260,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21431,8 +22299,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21464,8 +22338,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21497,8 +22377,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21530,8 +22416,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21563,8 +22455,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21596,8 +22494,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21629,8 +22533,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21659,11 +22569,17 @@
         <v>154630.2754649402</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21695,8 +22611,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21728,8 +22650,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21761,8 +22689,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21794,8 +22728,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21824,15 +22764,23 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
+        <v>1.177141701714655</v>
+      </c>
+      <c r="M573" t="n">
+        <v>1.022646392753154</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -21956,7 +22904,7 @@
         <v>137350.5237645502</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21989,7 +22937,7 @@
         <v>136350.7026645502</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22022,7 +22970,7 @@
         <v>113032.5315645502</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22055,7 +23003,7 @@
         <v>97392.13047938015</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22088,7 +23036,7 @@
         <v>108455.1459793801</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22121,7 +23069,7 @@
         <v>107614.4967793801</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22154,7 +23102,7 @@
         <v>107604.5763793801</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22187,7 +23135,7 @@
         <v>106151.6275793801</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22220,7 +23168,7 @@
         <v>99998.23107938014</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22352,7 +23300,7 @@
         <v>87760.21617938014</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22385,7 +23333,7 @@
         <v>94614.65267938013</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22418,7 +23366,7 @@
         <v>94614.65267938013</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22451,7 +23399,7 @@
         <v>94614.65267938013</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22484,7 +23432,7 @@
         <v>94247.00207938014</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22517,7 +23465,7 @@
         <v>91698.64177938014</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22550,7 +23498,7 @@
         <v>89384.36817938014</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22583,7 +23531,7 @@
         <v>86957.19977938014</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22616,7 +23564,7 @@
         <v>83470.02857938014</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22649,7 +23597,7 @@
         <v>86937.05757938014</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22682,7 +23630,7 @@
         <v>83559.90447938014</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22715,7 +23663,7 @@
         <v>84190.36177938014</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22748,7 +23696,7 @@
         <v>85129.45177938014</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22781,7 +23729,7 @@
         <v>85129.45177938014</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22814,7 +23762,7 @@
         <v>82839.36517938014</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22946,7 +23894,7 @@
         <v>82554.25867938013</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23177,7 +24125,7 @@
         <v>73033.48577938011</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23210,7 +24158,7 @@
         <v>74455.08547938011</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23243,7 +24191,7 @@
         <v>71351.42567938012</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23276,7 +24224,7 @@
         <v>69920.43997938011</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23309,7 +24257,7 @@
         <v>70089.60017938011</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23804,7 +24752,7 @@
         <v>68938.12522756007</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23837,7 +24785,7 @@
         <v>67541.07112756008</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -27379,6 +28327,6 @@
       <c r="M741" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-22 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>-5205.083530889986</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-5203.083530889986</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-12423.12003088999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-12521.14943088999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-12784.65153088999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-18375.59033088999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-15775.59033088999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-15773.59033088999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-20577.91663088999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +893,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +929,19 @@
         <v>-20318.23463088999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +973,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -918,10 +1014,12 @@
       <c r="I16" t="n">
         <v>315.4</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -952,12 +1050,12 @@
         <v>-13360.62683088999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -996,7 +1094,9 @@
       <c r="I18" t="n">
         <v>320.2</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1035,7 +1135,9 @@
       <c r="I19" t="n">
         <v>319.8</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1074,7 +1176,9 @@
       <c r="I20" t="n">
         <v>319.5</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1108,12 +1212,12 @@
         <v>-21821.71913088999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>319</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,7 +1256,9 @@
       <c r="I22" t="n">
         <v>320.1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,12 +1292,12 @@
         <v>-9190.025030889989</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>321.7</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,7 +1336,9 @@
       <c r="I24" t="n">
         <v>321.9</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,12 +1372,12 @@
         <v>-10738.63853088999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>324.3</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,12 +1411,12 @@
         <v>-7887.566730889988</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>323</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,12 +1450,12 @@
         <v>-4919.089430889988</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>325.9</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,12 +1489,12 @@
         <v>9441.449369110012</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>327</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,12 +1528,12 @@
         <v>24587.62346911001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>329.8</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,7 +1570,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1499,7 +1609,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1533,12 +1645,12 @@
         <v>22157.18976911001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>327.6</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1575,7 +1687,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,7 +1726,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1649,7 +1765,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,7 +1804,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,12 +1840,12 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>334</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,10 +1879,14 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,7 +1925,9 @@
       <c r="I39" t="n">
         <v>332.5</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,10 +1961,14 @@
         <v>13893.61786911001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,7 +2007,9 @@
       <c r="I41" t="n">
         <v>329.6</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,7 +2046,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,16 +2082,20 @@
         <v>37521.15776911001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1983,11 +2121,17 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2016,11 +2160,17 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +2199,17 @@
         <v>35781.22366911001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2082,11 +2238,17 @@
         <v>35785.22366911001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2115,11 +2277,19 @@
         <v>37447.66546911001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>332.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2148,11 +2318,17 @@
         <v>37647.69546911001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2181,11 +2357,17 @@
         <v>40990.28816911001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2396,17 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2435,17 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2474,17 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2513,17 @@
         <v>47556.52920553002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2346,11 +2552,17 @@
         <v>61455.90410553002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2591,17 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2412,11 +2630,17 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2448,8 +2672,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2481,8 +2711,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2514,8 +2750,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2547,8 +2789,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2580,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2613,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2646,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2679,8 +2945,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2712,8 +2984,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2745,8 +3023,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2778,8 +3062,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2811,8 +3101,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2844,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2877,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2910,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2943,8 +3257,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2976,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3009,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3042,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3075,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3108,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3141,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3174,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3207,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3240,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3273,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3306,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3339,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3372,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3405,8 +3803,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3438,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3471,8 +3881,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3504,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3534,11 +3956,17 @@
         <v>93037.87205444001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3995,17 @@
         <v>95987.79775444002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3603,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3636,8 +4076,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3669,8 +4115,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3702,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3735,8 +4193,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3768,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3801,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3834,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3867,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3900,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3933,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3966,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3999,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4032,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4065,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4098,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4131,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4164,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4197,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4230,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4263,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4296,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4329,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4362,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4395,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4428,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4461,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4494,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4527,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4560,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4593,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4626,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4725,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4758,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4791,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4824,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4857,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4890,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4923,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4956,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5022,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5055,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5088,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5121,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5154,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5187,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5220,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5286,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5319,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5352,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5385,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5418,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5451,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5481,11 +6257,17 @@
         <v>94438.47889082001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +6296,17 @@
         <v>97452.15979082002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5583,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5616,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5649,8 +6455,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5682,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5715,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5748,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5781,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5880,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5913,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5946,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5979,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6012,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6045,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6078,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6111,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6144,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6177,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6210,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6243,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6276,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6309,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6375,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6408,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6441,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6474,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6507,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6540,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6573,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6606,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6639,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6672,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6705,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6738,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6771,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6804,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6837,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6870,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6903,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6936,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7032,11 +8090,17 @@
         <v>135286.55509082</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7065,11 +8129,17 @@
         <v>134703.13049082</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +8168,17 @@
         <v>129553.48179082</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7131,11 +8207,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7164,11 +8246,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +8285,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7230,11 +8324,17 @@
         <v>132197.4740371</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7263,11 +8363,17 @@
         <v>129352.3856371</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7296,11 +8402,17 @@
         <v>126628.6333371</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7329,11 +8441,17 @@
         <v>124628.6333371</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7362,11 +8480,17 @@
         <v>124630.0958371</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7395,11 +8519,17 @@
         <v>122256.7584371</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7428,11 +8558,17 @@
         <v>121579.8793371</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7461,11 +8597,17 @@
         <v>121599.8793371</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +8636,17 @@
         <v>121514.5517371</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7527,11 +8675,17 @@
         <v>123784.3726371</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7560,11 +8714,17 @@
         <v>123784.3726371</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7593,11 +8753,17 @@
         <v>115630.7220371</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7626,11 +8792,17 @@
         <v>115575.6052371</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7659,11 +8831,17 @@
         <v>115775.6052371</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7692,11 +8870,17 @@
         <v>113158.5264371</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +8909,17 @@
         <v>112645.6655371</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7758,11 +8948,17 @@
         <v>112089.1025371</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +8987,17 @@
         <v>73925.25943710003</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +9026,17 @@
         <v>76479.32533710003</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7860,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7893,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7926,8 +9146,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7959,8 +9185,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7992,8 +9224,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8025,8 +9263,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8058,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8091,8 +9341,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8124,8 +9380,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +9419,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8190,8 +9458,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8223,8 +9497,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8256,8 +9536,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8289,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8322,8 +9614,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8355,8 +9653,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8388,8 +9692,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8421,8 +9731,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8454,8 +9770,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8487,8 +9809,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8520,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8553,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8586,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8619,8 +9965,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8652,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8685,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8718,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8751,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8784,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8817,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8850,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8883,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8916,8 +10316,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8949,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8982,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9015,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9048,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9081,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9114,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9147,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9180,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9213,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9246,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9279,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9312,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9345,8 +10823,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9378,8 +10862,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9411,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9444,8 +10940,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9477,8 +10979,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9510,8 +11018,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9543,8 +11057,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9576,8 +11096,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +11135,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9642,8 +11174,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9675,8 +11213,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9708,8 +11252,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9738,15 +11288,15 @@
         <v>60608.26109523005</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>321.9</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9780,7 +11330,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,12 +11366,12 @@
         <v>43115.23699523004</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,12 +11405,12 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>318.3</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,12 +11444,12 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>320</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9934,7 +11486,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9968,12 +11522,12 @@
         <v>43425.73699523004</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>318</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,12 +11561,12 @@
         <v>48431.50699523004</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>318</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,12 +11600,12 @@
         <v>52400.21539523004</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>319</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,7 +11642,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,12 +11678,12 @@
         <v>39921.45659523005</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10161,12 +11717,12 @@
         <v>40235.93889523005</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,12 +11756,12 @@
         <v>41148.07373294005</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,12 +11795,12 @@
         <v>58870.11823294005</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>317</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,12 +11834,12 @@
         <v>65012.86883294005</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>317.1</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10320,7 +11876,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10357,7 +11915,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10394,7 +11954,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,7 +11993,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,7 +12032,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10505,7 +12071,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10542,7 +12110,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10579,7 +12149,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10616,7 +12188,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10653,7 +12227,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,7 +12266,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,7 +12305,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10764,7 +12344,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,7 +12383,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,7 +12422,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10875,7 +12461,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10912,7 +12500,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10949,7 +12539,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10986,7 +12578,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11023,7 +12617,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,7 +12656,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,7 +12695,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11134,7 +12734,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,7 +12773,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,7 +12812,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11245,7 +12851,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,7 +12890,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,7 +12929,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,7 +12968,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,7 +13007,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,7 +13046,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,7 +13085,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,7 +13124,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11541,7 +13163,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11578,7 +13202,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,7 +13241,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,7 +13280,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,7 +13319,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,7 +13358,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,7 +13397,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,7 +13436,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11837,7 +13475,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,7 +13514,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,7 +13553,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,7 +13592,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11985,7 +13631,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12022,7 +13670,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12059,7 +13709,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,7 +13748,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12133,7 +13787,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12170,7 +13826,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12207,7 +13865,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,7 +13904,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12281,7 +13943,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12318,7 +13982,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,7 +14021,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,7 +14060,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12429,7 +14099,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,7 +14138,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12503,7 +14177,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12540,7 +14216,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,7 +14255,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,7 +14294,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,7 +14333,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12688,7 +14372,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,7 +14411,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12762,7 +14450,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,7 +14489,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,7 +14528,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,7 +14567,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,7 +14606,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,7 +14645,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,7 +14684,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13018,16 +14720,20 @@
         <v>99562.91358504009</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L367" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
       <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
@@ -13053,11 +14759,17 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13086,11 +14798,17 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +14837,17 @@
         <v>101855.7845850401</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13152,11 +14876,17 @@
         <v>99040.93988504009</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13185,11 +14915,17 @@
         <v>99045.9442850401</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +14954,17 @@
         <v>103615.2303843001</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +14993,17 @@
         <v>104944.4350843001</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +15032,17 @@
         <v>103687.2448843001</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13317,11 +15071,17 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13350,11 +15110,17 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13383,11 +15149,17 @@
         <v>101385.6236366501</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13416,11 +15188,17 @@
         <v>105619.8048366501</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13449,11 +15227,17 @@
         <v>103386.7079366501</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13482,11 +15266,17 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13515,11 +15305,17 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13548,11 +15344,17 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13581,11 +15383,17 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13614,11 +15422,17 @@
         <v>101136.3013366501</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +15461,17 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13680,11 +15500,17 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13713,11 +15539,17 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13746,11 +15578,17 @@
         <v>101469.3011366501</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13779,11 +15617,17 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13812,11 +15656,17 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13845,11 +15695,17 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13878,11 +15734,17 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13911,11 +15773,17 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +15812,17 @@
         <v>87483.22563665011</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13977,11 +15851,17 @@
         <v>89821.79643665011</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14010,11 +15890,17 @@
         <v>86306.23013665011</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14043,11 +15929,17 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14076,11 +15968,17 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14109,11 +16007,17 @@
         <v>82363.70513665011</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14142,11 +16046,17 @@
         <v>82231.66553665011</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +16085,17 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +16124,17 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +16163,17 @@
         <v>83433.26553665011</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14274,11 +16202,17 @@
         <v>81336.40443665012</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14310,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +16283,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14376,8 +16322,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +16361,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +16439,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14508,8 +16478,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14541,8 +16517,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14574,8 +16556,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +16595,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +16712,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +16751,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +16790,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +16829,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +16907,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +16946,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +16985,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +17024,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +17063,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +17180,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +17258,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +17336,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +17375,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +17414,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +17570,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +17609,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15729,8 +17921,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15762,8 +17960,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16026,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +18425,17 @@
         <v>70004.60764400013</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16188,11 +18464,17 @@
         <v>67759.67794400014</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16221,11 +18503,17 @@
         <v>67761.67794400014</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16254,11 +18542,17 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16287,11 +18581,17 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16320,11 +18620,17 @@
         <v>67027.67804400015</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16353,11 +18659,17 @@
         <v>67019.67804400015</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +18740,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +18779,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +18818,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +19052,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +19091,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +19130,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +19169,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +19208,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +19286,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16917,8 +19325,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +19364,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16983,8 +19403,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17016,8 +19442,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +19481,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17082,8 +19520,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +19559,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17148,8 +19598,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17181,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17214,8 +19676,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17247,8 +19715,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +19754,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17313,8 +19793,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17346,8 +19832,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17379,8 +19871,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17412,8 +19910,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17445,8 +19949,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17478,8 +19988,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17511,8 +20027,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17544,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17577,8 +20105,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17610,8 +20144,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17643,8 +20183,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17676,8 +20222,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17709,8 +20261,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17742,8 +20300,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17772,15 +20336,17 @@
         <v>20295.50124400015</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>323.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>323.6</v>
-      </c>
-      <c r="K511" t="inlineStr"/>
+        <v>309.1</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17809,17 +20375,15 @@
         <v>20200.11874400015</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>323.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L512" t="n">
@@ -17850,13 +20414,11 @@
         <v>20195.18414400015</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17891,13 +20453,11 @@
         <v>20333.22554400015</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>322.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17932,13 +20492,11 @@
         <v>20338.16014400015</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>327.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17977,7 +20535,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18016,7 +20574,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18055,7 +20613,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18094,7 +20652,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18129,13 +20687,11 @@
         <v>20682.86744400015</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>324.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18170,13 +20726,11 @@
         <v>22391.96274400015</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>330.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18215,7 +20769,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18254,7 +20808,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18293,7 +20847,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18332,7 +20886,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18367,19 +20921,19 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>323.6</v>
+        <v>309.1</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L526" t="n">
-        <v>1.045061804697157</v>
+        <v>1</v>
       </c>
       <c r="M526" t="inlineStr"/>
     </row>
@@ -18406,11 +20960,17 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18439,11 +20999,17 @@
         <v>76402.90665278015</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18472,11 +21038,17 @@
         <v>93317.46029439016</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18505,11 +21077,17 @@
         <v>100479.4267943902</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +21116,17 @@
         <v>110262.5087810301</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18571,11 +21155,17 @@
         <v>131066.0220584401</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18607,8 +21197,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18640,8 +21236,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18673,8 +21275,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +21314,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18739,8 +21353,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18772,8 +21392,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18805,8 +21431,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +21470,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18871,8 +21509,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18904,8 +21548,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +21587,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +21626,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19003,8 +21665,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19036,8 +21704,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19069,8 +21743,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19102,8 +21782,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19132,11 +21818,17 @@
         <v>109432.1185618002</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19165,11 +21857,17 @@
         <v>119798.7363618002</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19198,11 +21896,17 @@
         <v>128253.9697618002</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19234,8 +21938,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19267,8 +21977,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19300,8 +22016,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19333,8 +22055,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19366,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19396,11 +22130,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19429,11 +22169,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19462,11 +22208,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19495,11 +22247,17 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19528,11 +22286,17 @@
         <v>181713.8435649402</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19561,15 +22325,23 @@
         <v>133101.5231649402</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
+        <v>1.144142672274345</v>
+      </c>
+      <c r="M562" t="n">
+        <v>1.022646392753154</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -19594,7 +22366,7 @@
         <v>138261.6982649401</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19627,7 +22399,7 @@
         <v>149276.0170649402</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19693,7 +22465,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19726,7 +22498,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19891,7 +22663,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19924,7 +22696,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19957,7 +22729,7 @@
         <v>184863.1865317302</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19990,7 +22762,7 @@
         <v>178664.5761317302</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20023,7 +22795,7 @@
         <v>137202.6549645502</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20056,7 +22828,7 @@
         <v>137350.5237645502</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20089,7 +22861,7 @@
         <v>136350.7026645502</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20683,7 +23455,7 @@
         <v>86957.19977938014</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20716,7 +23488,7 @@
         <v>83470.02857938014</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20749,7 +23521,7 @@
         <v>86937.05757938014</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20881,7 +23653,7 @@
         <v>85129.45177938014</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20914,7 +23686,7 @@
         <v>82839.36517938014</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
